--- a/Dicionário de Dados Update.xlsx
+++ b/Dicionário de Dados Update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jorge\Dropbox\@SATC_Aula\202301\BDII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E3AA3E-FD10-4883-A322-EDB47FD57792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52717C5C-7C64-4661-B1C9-A88BFB9F13E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-15" windowWidth="20730" windowHeight="11160" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -438,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -625,11 +625,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -658,77 +684,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -738,121 +779,112 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15"/>
@@ -1187,47 +1219,47 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1248,10 +1280,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1270,10 +1302,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1290,10 +1322,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1310,10 +1342,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +1362,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1340,8 +1372,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1350,22 +1382,22 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1375,103 +1407,103 @@
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1492,10 +1524,10 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1514,10 +1546,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1534,10 +1566,10 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1554,10 +1586,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1574,8 +1606,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1584,8 +1616,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1594,22 +1626,22 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
@@ -1619,103 +1651,103 @@
       <c r="E29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="20" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1736,10 +1768,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1758,10 +1790,10 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1780,10 +1812,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1802,10 +1834,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
@@ -1824,10 +1856,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
@@ -1846,10 +1878,10 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
@@ -1868,10 +1900,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
@@ -1888,10 +1920,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -1908,8 +1940,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1918,188 +1950,188 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="61"/>
+      <c r="C49" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="55"/>
+      <c r="C50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="25" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="25" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="25" t="s">
+      <c r="E53" s="13"/>
+      <c r="F53" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="32" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="28" t="s">
+      <c r="E54" s="15"/>
+      <c r="F54" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="29"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="32" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="28" t="s">
+      <c r="E55" s="15"/>
+      <c r="F55" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="29"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="15"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="15"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="37"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="6" t="s">
         <v>6</v>
       </c>
@@ -2120,10 +2152,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
@@ -2142,10 +2174,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -2162,10 +2194,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
@@ -2182,8 +2214,8 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="2"/>
       <c r="D64" s="8"/>
       <c r="E64" s="2"/>
@@ -2192,8 +2224,8 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="2"/>
       <c r="D65" s="8"/>
       <c r="E65" s="2"/>
@@ -2202,8 +2234,8 @@
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2212,22 +2244,22 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="39"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="39"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="6" t="s">
         <v>28</v>
       </c>
@@ -2237,104 +2269,104 @@
       <c r="E68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="39"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="34"/>
+      <c r="C69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="65" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="67"/>
-      <c r="H69" s="66"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="62"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="63"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="62"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="63"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="62"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="63"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1"/>
     <row r="74" spans="1:8">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="15"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="15"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="47"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="50"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="5" t="s">
         <v>6</v>
       </c>
@@ -2355,10 +2387,10 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="15"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
@@ -2377,10 +2409,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
@@ -2399,10 +2431,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="33" customHeight="1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="2" t="s">
         <v>83</v>
       </c>
@@ -2419,8 +2451,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2429,22 +2461,22 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="47"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="5" t="s">
         <v>28</v>
       </c>
@@ -2454,92 +2486,92 @@
       <c r="E83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="69" t="s">
+      <c r="F83" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="70"/>
-      <c r="H83" s="71"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="78"/>
+      <c r="C84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="72" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="66"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21" t="s">
+      <c r="B85" s="47"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="73" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G85" s="74"/>
-      <c r="H85" s="75"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="65"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="63"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="62"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="63"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="38"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1"/>
     <row r="89" spans="1:8">
       <c r="A89" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="15"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="28"/>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="15"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
@@ -2578,10 +2610,10 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
@@ -2600,10 +2632,10 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
@@ -2620,8 +2652,8 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2630,8 +2662,8 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2640,22 +2672,22 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="39"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" ht="15" customHeight="1">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="6" t="s">
         <v>28</v>
       </c>
@@ -2665,98 +2697,98 @@
       <c r="E98" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="38" t="s">
+      <c r="F98" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="39"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="21" t="s">
+      <c r="B99" s="34"/>
+      <c r="C99" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="65" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G99" s="67"/>
-      <c r="H99" s="66"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="62"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="63"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="62"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="63"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="62"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="63"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="15" customHeight="1"/>
     <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="15"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="28"/>
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="15"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="28"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="47"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="49"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
@@ -2783,10 +2815,10 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="59"/>
+      <c r="B108" s="72"/>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
@@ -2805,11 +2837,11 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="57"/>
-      <c r="C109" s="58" t="s">
+      <c r="B109" s="70"/>
+      <c r="C109" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -2825,11 +2857,11 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="57"/>
-      <c r="C110" s="58" t="s">
+      <c r="B110" s="70"/>
+      <c r="C110" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -2845,11 +2877,11 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B111" s="57"/>
-      <c r="C111" s="58" t="s">
+      <c r="B111" s="70"/>
+      <c r="C111" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -2867,10 +2899,10 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="60"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
@@ -2889,8 +2921,8 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -2899,8 +2931,8 @@
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1">
-      <c r="A114" s="55"/>
-      <c r="B114" s="56"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="76"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -2909,22 +2941,22 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="50"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="50"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="5" t="s">
         <v>28</v>
       </c>
@@ -2934,116 +2966,116 @@
       <c r="E116" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F116" s="45" t="s">
+      <c r="F116" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="49"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="21" t="s">
+      <c r="B117" s="34"/>
+      <c r="C117" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="65" t="s">
+      <c r="D117" s="11"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G117" s="67"/>
-      <c r="H117" s="66"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="66"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21" t="s">
+      <c r="B118" s="34"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="76"/>
-      <c r="F118" s="65" t="s">
+      <c r="E118" s="20"/>
+      <c r="F118" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G118" s="67"/>
-      <c r="H118" s="66"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B119" s="66"/>
-      <c r="C119" s="21" t="s">
+      <c r="B119" s="34"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="21"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="65" t="s">
+      <c r="E119" s="20"/>
+      <c r="F119" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G119" s="67"/>
-      <c r="H119" s="66"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="65"/>
-      <c r="B120" s="66"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="66"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1"/>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="15"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="28"/>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="15"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="28"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="39"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="26"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="6" t="s">
         <v>6</v>
       </c>
@@ -3064,10 +3096,10 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B126" s="15"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="2" t="s">
         <v>57</v>
       </c>
@@ -3084,10 +3116,10 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B127" s="15"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
@@ -3104,10 +3136,10 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B128" s="15"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -3124,10 +3156,10 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="15"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
@@ -3142,8 +3174,8 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="2"/>
       <c r="D130" s="8"/>
       <c r="E130" s="2"/>
@@ -3152,8 +3184,8 @@
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1">
-      <c r="A131" s="55"/>
-      <c r="B131" s="56"/>
+      <c r="A131" s="75"/>
+      <c r="B131" s="76"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3162,22 +3194,22 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="39"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="26"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="6" t="s">
         <v>28</v>
       </c>
@@ -3187,54 +3219,199 @@
       <c r="E133" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="38" t="s">
+      <c r="F133" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="39"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="26"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="42"/>
-      <c r="B134" s="44"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="4"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="44"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="23"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="42"/>
-      <c r="B135" s="44"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="44"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="23"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="42"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="4"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="44"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="42"/>
-      <c r="B137" s="44"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="4"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="42"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="44"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F86:H86"/>
     <mergeCell ref="F137:H137"/>
     <mergeCell ref="A137:B137"/>
     <mergeCell ref="A136:B136"/>
@@ -3259,151 +3436,6 @@
     <mergeCell ref="F100:H100"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="F98:H98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A131:B131"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
